--- a/STGGame/Assets/MainEditor/Design/Configs/G_Wingman.xlsx
+++ b/STGGame/Assets/MainEditor/Design/Configs/G_Wingman.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="8205" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="17220" yWindow="11860" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -85,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -457,16 +457,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="22.125" customWidth="1"/>
+    <col min="1" max="2" width="22.1640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -516,7 +516,7 @@
     <row r="5" spans="1:4" hidden="1"/>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>10200001</v>
+        <v>10200101</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>10200002</v>
+        <v>10200201</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -554,14 +554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/STGGame/Assets/MainEditor/Design/Configs/G_Wingman.xlsx
+++ b/STGGame/Assets/MainEditor/Design/Configs/G_Wingman.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="11860" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="12480" yWindow="6660" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,11 +54,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>life</t>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八云蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,19 +82,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴阳玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八云蓝</t>
+    <t>子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,47 +466,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -509,37 +524,34 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1"/>
-    <row r="5" spans="1:4" hidden="1"/>
-    <row r="6" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1"/>
+    <row r="5" spans="1:5" hidden="1"/>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>10200101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>10200201</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1</v>
-      </c>
-      <c r="D7">
-        <v>11000</v>
       </c>
     </row>
   </sheetData>

--- a/STGGame/Assets/MainEditor/Design/Configs/G_Wingman.xlsx
+++ b/STGGame/Assets/MainEditor/Design/Configs/G_Wingman.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="6660" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="9080" yWindow="6940" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -541,6 +541,12 @@
       </c>
       <c r="C6">
         <v>1</v>
+      </c>
+      <c r="D6">
+        <v>40200101</v>
+      </c>
+      <c r="E6">
+        <v>10510200</v>
       </c>
     </row>
     <row r="7" spans="1:5">
